--- a/www/ig/fhir/tddui/all-profiles.xlsx
+++ b/www/ig/fhir/tddui/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4832" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4858" uniqueCount="586">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1-ballot</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T13:52:19+01:00</t>
+    <t>2024-04-02T14:15:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,8 +259,8 @@
     <t>A container for a collection of resources.</t>
   </si>
   <si>
-    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
+    <t>bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}
+bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}</t>
   </si>
   <si>
     <t>Bundle.id</t>
@@ -302,6 +302,10 @@
   </si>
   <si>
     <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -434,8 +438,8 @@
     <t>Only used if the bundle is a search result set. The total does not include resources such as OperationOutcome and included resources, only the total number of matching resources.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-1
-</t>
+    <t>ele-1
+bdl-1</t>
   </si>
   <si>
     <t>Bundle.link</t>
@@ -492,6 +496,16 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -528,6 +542,9 @@
     <t>A name which details the functional use for this link - see [http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1](http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1).</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>Bundle.link.url</t>
   </si>
   <si>
@@ -535,6 +552,9 @@
   </si>
   <si>
     <t>The reference details for the link.</t>
+  </si>
+  <si>
+    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
   </si>
   <si>
     <t>Bundle.entry</t>
@@ -553,11 +573,8 @@
     <t>Slicing based on the profile conformance of the entry</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}</t>
   </si>
   <si>
     <t>Bundle.entry.id</t>
@@ -615,8 +632,8 @@
     <t>Information about the search process that lead to the creation of this entry.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-2
-</t>
+    <t>ele-1
+bdl-2</t>
   </si>
   <si>
     <t>Bundle.entry.search.id</t>
@@ -672,8 +689,8 @@
     <t>Additional information about how this entry should be processed as part of a transaction or batch.  For history, it shows how the entry was processed to create the version contained in the entry.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-3
-</t>
+    <t>ele-1
+bdl-3</t>
   </si>
   <si>
     <t>Bundle.entry.request.id</t>
@@ -727,6 +744,9 @@
     <t>Only perform the operation if the last updated date matches. See the API documentation for ["Conditional Read"](http://hl7.org/fhir/R4/http.html#cread).</t>
   </si>
   <si>
+    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
+  </si>
+  <si>
     <t>Bundle.entry.request.ifMatch</t>
   </si>
   <si>
@@ -754,8 +774,8 @@
     <t>Indicates the results of processing the corresponding 'request' entry in the batch or transaction being responded to or what the results of an operation where when returning history.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-4
-</t>
+    <t>ele-1
+bdl-4</t>
   </si>
   <si>
     <t>Bundle.entry.response.id</t>
@@ -862,10 +882,6 @@
     <t>Usually, this is used for documents other than those defined by FHIR.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Bundle.entry:DUIDocumentReference.search</t>
   </si>
   <si>
@@ -984,6 +1000,10 @@
     <t>http://hl7.org/fhir/StructureDefinition/DocumentReference</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+  </si>
+  <si>
     <t>DocumentReference.id</t>
   </si>
   <si>
@@ -994,13 +1014,6 @@
   </si>
   <si>
     <t>DocumentReference.meta.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>DocumentReference.meta.versionId</t>
@@ -1321,6 +1334,13 @@
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>DocumentReference.date</t>
   </si>
   <si>
@@ -1501,6 +1521,13 @@
   </si>
   <si>
     <t>The document or URL of the document along with critical metadata to prove content has integrity.</t>
+  </si>
+  <si>
+    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.id</t>
@@ -1768,6 +1795,14 @@
     <t>The time period over which the service that is described by the document was provided.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
     <t>DocumentReference.context.facilityType</t>
   </si>
   <si>
@@ -1775,6 +1810,9 @@
   </si>
   <si>
     <t>The kind of facility where the patient was seen.</t>
+  </si>
+  <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS</t>
@@ -2150,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24">
@@ -2158,7 +2196,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25">
@@ -2174,7 +2212,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27">
@@ -2182,7 +2220,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28">
@@ -2236,7 +2274,7 @@
         <v>23</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35">
@@ -2272,7 +2310,7 @@
         <v>31</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40">
@@ -2280,7 +2318,7 @@
         <v>33</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41">
@@ -2315,17 +2353,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="24.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="59.26953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="48.453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="22.09375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="38.4609375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.5078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="61.7734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="50.828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="23.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="13.06640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2334,21 +2372,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="10.99609375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="35.75" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="162.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="119.20703125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="48.42578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="15.703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="42.265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="11.40234375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="35.69140625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="168.19140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="120.0625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="50.03125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -2770,10 +2808,10 @@
         <v>83</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
@@ -2781,10 +2819,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -2807,16 +2845,16 @@
         <v>84</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
@@ -2866,7 +2904,7 @@
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
@@ -2875,10 +2913,10 @@
         <v>83</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -2886,10 +2924,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2912,16 +2950,16 @@
         <v>75</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
@@ -2947,13 +2985,13 @@
         <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="s" s="2">
         <v>75</v>
@@ -2971,7 +3009,7 @@
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
@@ -2980,10 +3018,10 @@
         <v>83</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -2991,10 +3029,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -3017,16 +3055,16 @@
         <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
@@ -3076,7 +3114,7 @@
         <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>76</v>
@@ -3085,10 +3123,10 @@
         <v>83</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -3096,10 +3134,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3122,16 +3160,16 @@
         <v>84</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
@@ -3142,7 +3180,7 @@
         <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U8" t="s" s="2">
         <v>75</v>
@@ -3157,13 +3195,13 @@
         <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB8" t="s" s="2">
         <v>75</v>
@@ -3181,7 +3219,7 @@
         <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>83</v>
@@ -3190,10 +3228,10 @@
         <v>83</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -3201,10 +3239,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3227,16 +3265,16 @@
         <v>84</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
@@ -3286,7 +3324,7 @@
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>76</v>
@@ -3295,10 +3333,10 @@
         <v>83</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -3306,10 +3344,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3332,16 +3370,16 @@
         <v>84</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
@@ -3391,7 +3429,7 @@
         <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>76</v>
@@ -3400,10 +3438,10 @@
         <v>83</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
@@ -3411,10 +3449,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3437,16 +3475,16 @@
         <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
@@ -3496,7 +3534,7 @@
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>76</v>
@@ -3505,10 +3543,10 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -3516,10 +3554,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3542,13 +3580,13 @@
         <v>75</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -3599,7 +3637,7 @@
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>76</v>
@@ -3619,14 +3657,14 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
@@ -3645,16 +3683,16 @@
         <v>75</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
@@ -3692,19 +3730,19 @@
         <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>76</v>
@@ -3713,10 +3751,10 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
@@ -3724,14 +3762,14 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
@@ -3750,19 +3788,19 @@
         <v>84</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q14" t="s" s="2">
         <v>75</v>
@@ -3811,7 +3849,7 @@
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>76</v>
@@ -3820,10 +3858,10 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
@@ -3831,10 +3869,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3857,15 +3895,17 @@
         <v>84</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
         <v>75</v>
@@ -3914,7 +3954,7 @@
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>83</v>
@@ -3923,10 +3963,10 @@
         <v>83</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
@@ -3934,10 +3974,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3960,15 +4000,17 @@
         <v>84</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
         <v>75</v>
@@ -4017,7 +4059,7 @@
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>83</v>
@@ -4026,10 +4068,10 @@
         <v>83</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -4037,10 +4079,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4063,13 +4105,13 @@
         <v>84</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -4108,19 +4150,19 @@
         <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
@@ -4129,10 +4171,10 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
@@ -4140,10 +4182,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4166,13 +4208,13 @@
         <v>75</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -4223,7 +4265,7 @@
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
@@ -4243,14 +4285,14 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
@@ -4269,16 +4311,16 @@
         <v>75</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
@@ -4316,19 +4358,19 @@
         <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
@@ -4337,10 +4379,10 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
@@ -4348,14 +4390,14 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
@@ -4374,19 +4416,19 @@
         <v>84</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q20" t="s" s="2">
         <v>75</v>
@@ -4435,7 +4477,7 @@
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
@@ -4444,10 +4486,10 @@
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
@@ -4455,10 +4497,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4484,10 +4526,10 @@
         <v>78</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4538,7 +4580,7 @@
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>76</v>
@@ -4550,7 +4592,7 @@
         <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -4558,10 +4600,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4584,16 +4626,16 @@
         <v>84</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
@@ -4643,7 +4685,7 @@
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>76</v>
@@ -4652,10 +4694,10 @@
         <v>83</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -4663,10 +4705,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4689,13 +4731,13 @@
         <v>84</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -4746,7 +4788,7 @@
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
@@ -4766,10 +4808,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4792,13 +4834,13 @@
         <v>84</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -4849,7 +4891,7 @@
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
@@ -4858,10 +4900,10 @@
         <v>83</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -4869,10 +4911,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4895,13 +4937,13 @@
         <v>75</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -4952,7 +4994,7 @@
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
@@ -4972,14 +5014,14 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
@@ -4998,16 +5040,16 @@
         <v>75</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
@@ -5045,19 +5087,19 @@
         <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
@@ -5066,10 +5108,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27">
@@ -5077,14 +5119,14 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
@@ -5103,19 +5145,19 @@
         <v>84</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q27" t="s" s="2">
         <v>75</v>
@@ -5164,7 +5206,7 @@
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
@@ -5173,10 +5215,10 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28">
@@ -5184,10 +5226,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5210,16 +5252,16 @@
         <v>84</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
@@ -5245,32 +5287,32 @@
         <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AA28" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG28" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AB28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="AH28" t="s" s="2">
         <v>76</v>
       </c>
@@ -5278,10 +5320,10 @@
         <v>83</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
@@ -5289,10 +5331,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5315,16 +5357,16 @@
         <v>84</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
@@ -5374,7 +5416,7 @@
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
@@ -5383,10 +5425,10 @@
         <v>83</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -5394,10 +5436,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5420,13 +5462,13 @@
         <v>84</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -5477,7 +5519,7 @@
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
@@ -5486,10 +5528,10 @@
         <v>83</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -5497,10 +5539,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5523,13 +5565,13 @@
         <v>75</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -5580,7 +5622,7 @@
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
@@ -5600,14 +5642,14 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
@@ -5626,16 +5668,16 @@
         <v>75</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
@@ -5673,19 +5715,19 @@
         <v>75</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
@@ -5694,10 +5736,10 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33">
@@ -5705,14 +5747,14 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
@@ -5731,19 +5773,19 @@
         <v>84</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q33" t="s" s="2">
         <v>75</v>
@@ -5792,7 +5834,7 @@
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
@@ -5801,10 +5843,10 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34">
@@ -5812,10 +5854,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5838,15 +5880,17 @@
         <v>84</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
         <v>75</v>
@@ -5871,13 +5915,13 @@
         <v>75</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AB34" t="s" s="2">
         <v>75</v>
@@ -5895,7 +5939,7 @@
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>83</v>
@@ -5904,10 +5948,10 @@
         <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
@@ -5915,10 +5959,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5941,16 +5985,16 @@
         <v>84</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
@@ -6000,7 +6044,7 @@
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>83</v>
@@ -6009,10 +6053,10 @@
         <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
@@ -6020,10 +6064,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6046,15 +6090,17 @@
         <v>84</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
         <v>75</v>
@@ -6103,7 +6149,7 @@
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
@@ -6112,10 +6158,10 @@
         <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
@@ -6123,10 +6169,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6149,15 +6195,17 @@
         <v>84</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>75</v>
@@ -6206,7 +6254,7 @@
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
@@ -6215,10 +6263,10 @@
         <v>83</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
@@ -6226,10 +6274,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6252,15 +6300,17 @@
         <v>84</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
         <v>75</v>
@@ -6309,7 +6359,7 @@
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
@@ -6318,10 +6368,10 @@
         <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -6329,10 +6379,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6355,15 +6405,17 @@
         <v>84</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
         <v>75</v>
@@ -6412,7 +6464,7 @@
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
@@ -6421,10 +6473,10 @@
         <v>83</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -6432,10 +6484,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6458,13 +6510,13 @@
         <v>84</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -6515,7 +6567,7 @@
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
@@ -6524,10 +6576,10 @@
         <v>83</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
@@ -6535,10 +6587,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6561,13 +6613,13 @@
         <v>75</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6618,7 +6670,7 @@
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
@@ -6638,14 +6690,14 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
@@ -6664,16 +6716,16 @@
         <v>75</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
@@ -6711,19 +6763,19 @@
         <v>75</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>76</v>
@@ -6732,10 +6784,10 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43">
@@ -6743,14 +6795,14 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
@@ -6769,19 +6821,19 @@
         <v>84</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q43" t="s" s="2">
         <v>75</v>
@@ -6830,7 +6882,7 @@
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
@@ -6839,10 +6891,10 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44">
@@ -6850,10 +6902,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6876,15 +6928,17 @@
         <v>84</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>75</v>
@@ -6933,7 +6987,7 @@
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>83</v>
@@ -6942,10 +6996,10 @@
         <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45">
@@ -6953,10 +7007,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6979,15 +7033,17 @@
         <v>84</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
         <v>75</v>
@@ -7036,7 +7092,7 @@
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
@@ -7045,10 +7101,10 @@
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
@@ -7056,10 +7112,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7082,16 +7138,16 @@
         <v>84</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
@@ -7141,7 +7197,7 @@
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>76</v>
@@ -7150,10 +7206,10 @@
         <v>83</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47">
@@ -7161,10 +7217,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7187,16 +7243,16 @@
         <v>84</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
@@ -7246,7 +7302,7 @@
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>76</v>
@@ -7255,10 +7311,10 @@
         <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48">
@@ -7266,10 +7322,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7292,16 +7348,16 @@
         <v>84</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
@@ -7351,7 +7407,7 @@
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>76</v>
@@ -7371,13 +7427,13 @@
         <v>3</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E49" t="s" s="2">
         <v>75</v>
@@ -7399,13 +7455,13 @@
         <v>84</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -7456,7 +7512,7 @@
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
@@ -7465,10 +7521,10 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50">
@@ -7476,10 +7532,10 @@
         <v>3</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7502,13 +7558,13 @@
         <v>75</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -7559,7 +7615,7 @@
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
@@ -7579,14 +7635,14 @@
         <v>3</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" t="s" s="2">
@@ -7605,16 +7661,16 @@
         <v>75</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
@@ -7652,19 +7708,19 @@
         <v>75</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
@@ -7673,10 +7729,10 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52">
@@ -7684,14 +7740,14 @@
         <v>3</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
@@ -7710,19 +7766,19 @@
         <v>84</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q52" t="s" s="2">
         <v>75</v>
@@ -7771,7 +7827,7 @@
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>76</v>
@@ -7780,10 +7836,10 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53">
@@ -7791,10 +7847,10 @@
         <v>3</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7820,10 +7876,10 @@
         <v>78</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -7874,7 +7930,7 @@
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
@@ -7886,7 +7942,7 @@
         <v>75</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
@@ -7894,10 +7950,10 @@
         <v>3</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7920,16 +7976,16 @@
         <v>84</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
@@ -7979,7 +8035,7 @@
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>76</v>
@@ -7988,10 +8044,10 @@
         <v>83</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55">
@@ -7999,10 +8055,10 @@
         <v>3</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8025,16 +8081,16 @@
         <v>75</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
@@ -8084,7 +8140,7 @@
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
@@ -8096,7 +8152,7 @@
         <v>75</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>269</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56">
@@ -8104,10 +8160,10 @@
         <v>3</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8130,13 +8186,13 @@
         <v>84</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -8187,7 +8243,7 @@
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
@@ -8196,10 +8252,10 @@
         <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57">
@@ -8207,10 +8263,10 @@
         <v>3</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8233,13 +8289,13 @@
         <v>75</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -8290,7 +8346,7 @@
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
@@ -8310,14 +8366,14 @@
         <v>3</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s" s="2">
@@ -8336,16 +8392,16 @@
         <v>75</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
@@ -8383,19 +8439,19 @@
         <v>75</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>76</v>
@@ -8404,10 +8460,10 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59">
@@ -8415,14 +8471,14 @@
         <v>3</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" t="s" s="2">
@@ -8441,19 +8497,19 @@
         <v>84</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q59" t="s" s="2">
         <v>75</v>
@@ -8502,7 +8558,7 @@
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>76</v>
@@ -8511,10 +8567,10 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60">
@@ -8522,10 +8578,10 @@
         <v>3</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8548,16 +8604,16 @@
         <v>84</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
@@ -8583,32 +8639,32 @@
         <v>75</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AA60" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG60" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AB60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8616,10 +8672,10 @@
         <v>83</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61">
@@ -8627,10 +8683,10 @@
         <v>3</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8653,16 +8709,16 @@
         <v>84</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
@@ -8712,7 +8768,7 @@
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
@@ -8721,10 +8777,10 @@
         <v>83</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62">
@@ -8732,10 +8788,10 @@
         <v>3</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8758,13 +8814,13 @@
         <v>84</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -8815,7 +8871,7 @@
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>76</v>
@@ -8824,10 +8880,10 @@
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63">
@@ -8835,10 +8891,10 @@
         <v>3</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8861,13 +8917,13 @@
         <v>75</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -8918,7 +8974,7 @@
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
@@ -8938,14 +8994,14 @@
         <v>3</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" t="s" s="2">
@@ -8964,16 +9020,16 @@
         <v>75</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
@@ -9011,19 +9067,19 @@
         <v>75</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>76</v>
@@ -9032,10 +9088,10 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65">
@@ -9043,14 +9099,14 @@
         <v>3</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
@@ -9069,19 +9125,19 @@
         <v>84</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P65" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q65" t="s" s="2">
         <v>75</v>
@@ -9130,7 +9186,7 @@
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
@@ -9139,10 +9195,10 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66">
@@ -9150,10 +9206,10 @@
         <v>3</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9176,15 +9232,17 @@
         <v>84</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
         <v>75</v>
@@ -9194,7 +9252,7 @@
         <v>75</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>75</v>
@@ -9209,13 +9267,13 @@
         <v>75</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AB66" t="s" s="2">
         <v>75</v>
@@ -9233,7 +9291,7 @@
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>83</v>
@@ -9242,10 +9300,10 @@
         <v>83</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67">
@@ -9253,10 +9311,10 @@
         <v>3</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9279,16 +9337,16 @@
         <v>84</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
@@ -9338,7 +9396,7 @@
         <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>83</v>
@@ -9347,10 +9405,10 @@
         <v>83</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68">
@@ -9358,10 +9416,10 @@
         <v>3</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9384,15 +9442,17 @@
         <v>84</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
         <v>75</v>
@@ -9441,7 +9501,7 @@
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
@@ -9450,10 +9510,10 @@
         <v>83</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69">
@@ -9461,10 +9521,10 @@
         <v>3</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9487,15 +9547,17 @@
         <v>84</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
         <v>75</v>
@@ -9544,7 +9606,7 @@
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
@@ -9553,10 +9615,10 @@
         <v>83</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70">
@@ -9564,10 +9626,10 @@
         <v>3</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9590,15 +9652,17 @@
         <v>84</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
         <v>75</v>
@@ -9647,7 +9711,7 @@
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>76</v>
@@ -9656,10 +9720,10 @@
         <v>83</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71">
@@ -9667,10 +9731,10 @@
         <v>3</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9693,15 +9757,17 @@
         <v>84</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
         <v>75</v>
@@ -9750,7 +9816,7 @@
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>76</v>
@@ -9759,10 +9825,10 @@
         <v>83</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72">
@@ -9770,10 +9836,10 @@
         <v>3</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9796,13 +9862,13 @@
         <v>84</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -9853,7 +9919,7 @@
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>76</v>
@@ -9862,10 +9928,10 @@
         <v>83</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73">
@@ -9873,10 +9939,10 @@
         <v>3</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9899,13 +9965,13 @@
         <v>75</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -9956,7 +10022,7 @@
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>76</v>
@@ -9976,14 +10042,14 @@
         <v>3</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
@@ -10002,16 +10068,16 @@
         <v>75</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
@@ -10049,19 +10115,19 @@
         <v>75</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>76</v>
@@ -10070,10 +10136,10 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75">
@@ -10081,14 +10147,14 @@
         <v>3</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
@@ -10107,19 +10173,19 @@
         <v>84</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P75" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q75" t="s" s="2">
         <v>75</v>
@@ -10168,7 +10234,7 @@
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>76</v>
@@ -10177,10 +10243,10 @@
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76">
@@ -10188,10 +10254,10 @@
         <v>3</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10214,15 +10280,17 @@
         <v>84</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>75</v>
@@ -10271,7 +10339,7 @@
         <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>83</v>
@@ -10280,10 +10348,10 @@
         <v>83</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77">
@@ -10291,10 +10359,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10317,15 +10385,17 @@
         <v>84</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
         <v>75</v>
@@ -10374,7 +10444,7 @@
         <v>75</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>76</v>
@@ -10383,10 +10453,10 @@
         <v>83</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78">
@@ -10394,10 +10464,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10420,16 +10490,16 @@
         <v>84</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
@@ -10479,7 +10549,7 @@
         <v>75</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
@@ -10488,10 +10558,10 @@
         <v>83</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79">
@@ -10499,10 +10569,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10525,16 +10595,16 @@
         <v>84</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
@@ -10584,7 +10654,7 @@
         <v>75</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>76</v>
@@ -10593,10 +10663,10 @@
         <v>83</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80">
@@ -10604,10 +10674,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10630,16 +10700,16 @@
         <v>84</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
@@ -10689,7 +10759,7 @@
         <v>75</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>76</v>
@@ -10709,10 +10779,10 @@
         <v>3</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10735,19 +10805,19 @@
         <v>84</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P81" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q81" t="s" s="2">
         <v>75</v>
@@ -10796,7 +10866,7 @@
         <v>75</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>76</v>
@@ -10805,21 +10875,21 @@
         <v>83</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10845,13 +10915,13 @@
         <v>78</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
@@ -10901,7 +10971,7 @@
         <v>75</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>76</v>
@@ -10913,18 +10983,18 @@
         <v>75</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>269</v>
+        <v>314</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11023,13 +11093,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11118,21 +11188,21 @@
         <v>83</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11155,13 +11225,13 @@
         <v>75</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
@@ -11212,7 +11282,7 @@
         <v>75</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>76</v>
@@ -11229,17 +11299,17 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s" s="2">
@@ -11258,16 +11328,16 @@
         <v>75</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
@@ -11305,19 +11375,19 @@
         <v>75</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>313</v>
+        <v>152</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>314</v>
+        <v>153</v>
       </c>
       <c r="AE86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>76</v>
@@ -11326,21 +11396,21 @@
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11366,13 +11436,13 @@
         <v>85</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
@@ -11422,7 +11492,7 @@
         <v>75</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>76</v>
@@ -11431,21 +11501,21 @@
         <v>83</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11468,16 +11538,16 @@
         <v>84</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
@@ -11527,7 +11597,7 @@
         <v>75</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>76</v>
@@ -11536,21 +11606,21 @@
         <v>83</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11573,16 +11643,16 @@
         <v>84</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
@@ -11632,7 +11702,7 @@
         <v>75</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>76</v>
@@ -11641,21 +11711,21 @@
         <v>83</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11678,16 +11748,16 @@
         <v>84</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
@@ -11737,7 +11807,7 @@
         <v>75</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>76</v>
@@ -11746,21 +11816,21 @@
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11783,16 +11853,16 @@
         <v>84</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
@@ -11818,13 +11888,13 @@
         <v>75</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AB91" t="s" s="2">
         <v>75</v>
@@ -11842,7 +11912,7 @@
         <v>75</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>76</v>
@@ -11851,21 +11921,21 @@
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11888,16 +11958,16 @@
         <v>84</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
@@ -11923,13 +11993,13 @@
         <v>75</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AB92" t="s" s="2">
         <v>75</v>
@@ -11947,7 +12017,7 @@
         <v>75</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>76</v>
@@ -11956,21 +12026,21 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -11993,16 +12063,16 @@
         <v>84</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
@@ -12052,7 +12122,7 @@
         <v>75</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>76</v>
@@ -12061,21 +12131,21 @@
         <v>83</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12098,16 +12168,16 @@
         <v>75</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
@@ -12133,13 +12203,13 @@
         <v>75</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB94" t="s" s="2">
         <v>75</v>
@@ -12157,7 +12227,7 @@
         <v>75</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>76</v>
@@ -12166,25 +12236,25 @@
         <v>83</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" t="s" s="2">
@@ -12203,16 +12273,16 @@
         <v>75</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
@@ -12262,7 +12332,7 @@
         <v>75</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>76</v>
@@ -12271,25 +12341,25 @@
         <v>83</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" t="s" s="2">
@@ -12308,16 +12378,16 @@
         <v>75</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
@@ -12367,7 +12437,7 @@
         <v>75</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>76</v>
@@ -12384,17 +12454,17 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" t="s" s="2">
@@ -12413,16 +12483,16 @@
         <v>75</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
@@ -12460,19 +12530,19 @@
         <v>75</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>76</v>
@@ -12481,21 +12551,21 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12518,13 +12588,13 @@
         <v>75</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -12563,19 +12633,19 @@
         <v>75</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD98" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>76</v>
@@ -12584,21 +12654,21 @@
         <v>77</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12621,19 +12691,19 @@
         <v>84</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="P99" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q99" t="s" s="2">
         <v>75</v>
@@ -12682,7 +12752,7 @@
         <v>75</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>76</v>
@@ -12691,21 +12761,21 @@
         <v>83</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12728,13 +12798,13 @@
         <v>84</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -12785,7 +12855,7 @@
         <v>75</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>76</v>
@@ -12794,21 +12864,21 @@
         <v>77</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12831,16 +12901,16 @@
         <v>84</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
@@ -12851,47 +12921,47 @@
         <v>75</v>
       </c>
       <c r="T101" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG101" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="U101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="AH101" t="s" s="2">
         <v>83</v>
       </c>
@@ -12899,21 +12969,21 @@
         <v>83</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -12936,16 +13006,16 @@
         <v>84</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
@@ -12971,32 +13041,32 @@
         <v>75</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z102" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG102" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AA102" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="AH102" t="s" s="2">
         <v>76</v>
       </c>
@@ -13004,21 +13074,21 @@
         <v>83</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13041,16 +13111,16 @@
         <v>84</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
@@ -13076,11 +13146,11 @@
         <v>75</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z103" s="2"/>
       <c r="AA103" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AB103" t="s" s="2">
         <v>75</v>
@@ -13098,7 +13168,7 @@
         <v>75</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>76</v>
@@ -13107,25 +13177,25 @@
         <v>83</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" t="s" s="2">
@@ -13144,16 +13214,16 @@
         <v>84</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
@@ -13179,11 +13249,11 @@
         <v>75</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z104" s="2"/>
       <c r="AA104" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AB104" t="s" s="2">
         <v>75</v>
@@ -13201,7 +13271,7 @@
         <v>75</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>76</v>
@@ -13210,21 +13280,21 @@
         <v>77</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13247,15 +13317,17 @@
         <v>84</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O105" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
         <v>75</v>
@@ -13304,7 +13376,7 @@
         <v>75</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>76</v>
@@ -13313,25 +13385,25 @@
         <v>83</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" t="s" s="2">
@@ -13350,16 +13422,16 @@
         <v>84</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
@@ -13409,7 +13481,7 @@
         <v>75</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>76</v>
@@ -13418,21 +13490,21 @@
         <v>83</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13455,16 +13527,16 @@
         <v>84</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
@@ -13514,7 +13586,7 @@
         <v>75</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>76</v>
@@ -13523,21 +13595,21 @@
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -13560,16 +13632,16 @@
         <v>75</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
@@ -13619,7 +13691,7 @@
         <v>75</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>76</v>
@@ -13628,21 +13700,21 @@
         <v>83</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -13665,16 +13737,16 @@
         <v>75</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
@@ -13724,7 +13796,7 @@
         <v>75</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>76</v>
@@ -13733,21 +13805,21 @@
         <v>83</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -13770,16 +13842,16 @@
         <v>84</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
@@ -13829,7 +13901,7 @@
         <v>75</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>76</v>
@@ -13838,21 +13910,21 @@
         <v>77</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -13875,13 +13947,13 @@
         <v>75</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -13932,7 +14004,7 @@
         <v>75</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>76</v>
@@ -13949,17 +14021,17 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" t="s" s="2">
@@ -13978,16 +14050,16 @@
         <v>75</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
@@ -14025,19 +14097,19 @@
         <v>75</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>76</v>
@@ -14046,25 +14118,25 @@
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" t="s" s="2">
@@ -14083,19 +14155,19 @@
         <v>84</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P113" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q113" t="s" s="2">
         <v>75</v>
@@ -14144,7 +14216,7 @@
         <v>75</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>76</v>
@@ -14153,21 +14225,21 @@
         <v>77</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -14190,16 +14262,16 @@
         <v>84</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
@@ -14225,13 +14297,13 @@
         <v>75</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="AB114" t="s" s="2">
         <v>75</v>
@@ -14249,7 +14321,7 @@
         <v>75</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>83</v>
@@ -14258,21 +14330,21 @@
         <v>83</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -14295,15 +14367,17 @@
         <v>84</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O115" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P115" s="2"/>
       <c r="Q115" t="s" s="2">
         <v>75</v>
@@ -14352,7 +14426,7 @@
         <v>75</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>83</v>
@@ -14361,21 +14435,21 @@
         <v>83</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -14398,19 +14472,19 @@
         <v>84</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="P116" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="Q116" t="s" s="2">
         <v>75</v>
@@ -14459,7 +14533,7 @@
         <v>75</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>76</v>
@@ -14468,21 +14542,21 @@
         <v>83</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14505,19 +14579,19 @@
         <v>84</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="P117" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q117" t="s" s="2">
         <v>75</v>
@@ -14542,13 +14616,13 @@
         <v>75</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AB117" t="s" s="2">
         <v>75</v>
@@ -14566,7 +14640,7 @@
         <v>75</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>76</v>
@@ -14575,21 +14649,21 @@
         <v>77</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -14612,13 +14686,13 @@
         <v>84</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
@@ -14669,7 +14743,7 @@
         <v>75</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>83</v>
@@ -14678,21 +14752,21 @@
         <v>77</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -14715,13 +14789,13 @@
         <v>75</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
@@ -14772,7 +14846,7 @@
         <v>75</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>76</v>
@@ -14789,17 +14863,17 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" t="s" s="2">
@@ -14818,16 +14892,16 @@
         <v>75</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
@@ -14865,19 +14939,19 @@
         <v>75</v>
       </c>
       <c r="AC120" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>76</v>
@@ -14886,25 +14960,25 @@
         <v>77</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" t="s" s="2">
@@ -14923,19 +14997,19 @@
         <v>84</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P121" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q121" t="s" s="2">
         <v>75</v>
@@ -14984,7 +15058,7 @@
         <v>75</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>76</v>
@@ -14993,21 +15067,21 @@
         <v>77</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -15030,15 +15104,17 @@
         <v>84</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O122" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="P122" s="2"/>
       <c r="Q122" t="s" s="2">
         <v>75</v>
@@ -15087,7 +15163,7 @@
         <v>75</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>83</v>
@@ -15096,21 +15172,21 @@
         <v>83</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>95</v>
+        <v>479</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -15133,13 +15209,13 @@
         <v>75</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
@@ -15190,7 +15266,7 @@
         <v>75</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>76</v>
@@ -15207,17 +15283,17 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" t="s" s="2">
@@ -15236,16 +15312,16 @@
         <v>75</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" t="s" s="2">
@@ -15283,19 +15359,19 @@
         <v>75</v>
       </c>
       <c r="AC124" t="s" s="2">
-        <v>313</v>
+        <v>152</v>
       </c>
       <c r="AD124" t="s" s="2">
-        <v>314</v>
+        <v>153</v>
       </c>
       <c r="AE124" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>76</v>
@@ -15304,21 +15380,21 @@
         <v>77</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -15341,17 +15417,19 @@
         <v>84</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O125" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P125" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="Q125" t="s" s="2">
         <v>75</v>
@@ -15364,7 +15442,7 @@
         <v>75</v>
       </c>
       <c r="U125" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="V125" t="s" s="2">
         <v>75</v>
@@ -15376,13 +15454,13 @@
         <v>75</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="AA125" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="AB125" t="s" s="2">
         <v>75</v>
@@ -15400,7 +15478,7 @@
         <v>75</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>76</v>
@@ -15409,21 +15487,21 @@
         <v>83</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -15446,17 +15524,19 @@
         <v>84</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O126" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P126" t="s" s="2">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="Q126" t="s" s="2">
         <v>75</v>
@@ -15469,7 +15549,7 @@
         <v>75</v>
       </c>
       <c r="U126" t="s" s="2">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="V126" t="s" s="2">
         <v>75</v>
@@ -15481,13 +15561,13 @@
         <v>75</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB126" t="s" s="2">
         <v>75</v>
@@ -15505,7 +15585,7 @@
         <v>75</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>76</v>
@@ -15514,21 +15594,21 @@
         <v>83</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -15551,19 +15631,19 @@
         <v>75</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="P127" t="s" s="2">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="Q127" t="s" s="2">
         <v>75</v>
@@ -15612,7 +15692,7 @@
         <v>75</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>76</v>
@@ -15621,21 +15701,21 @@
         <v>83</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -15658,19 +15738,19 @@
         <v>84</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="P128" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="Q128" t="s" s="2">
         <v>75</v>
@@ -15683,7 +15763,7 @@
         <v>75</v>
       </c>
       <c r="U128" t="s" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="V128" t="s" s="2">
         <v>75</v>
@@ -15719,7 +15799,7 @@
         <v>75</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>76</v>
@@ -15728,21 +15808,21 @@
         <v>83</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -15765,19 +15845,19 @@
         <v>84</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="P129" t="s" s="2">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="Q129" t="s" s="2">
         <v>75</v>
@@ -15826,7 +15906,7 @@
         <v>75</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>76</v>
@@ -15835,21 +15915,21 @@
         <v>83</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -15872,19 +15952,19 @@
         <v>84</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="P130" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="Q130" t="s" s="2">
         <v>75</v>
@@ -15933,7 +16013,7 @@
         <v>75</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>76</v>
@@ -15942,21 +16022,21 @@
         <v>83</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -15979,17 +16059,19 @@
         <v>84</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O131" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P131" t="s" s="2">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="Q131" t="s" s="2">
         <v>75</v>
@@ -16002,7 +16084,7 @@
         <v>75</v>
       </c>
       <c r="U131" t="s" s="2">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="V131" t="s" s="2">
         <v>75</v>
@@ -16038,7 +16120,7 @@
         <v>75</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>76</v>
@@ -16047,21 +16129,21 @@
         <v>83</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -16084,17 +16166,17 @@
         <v>84</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="Q132" t="s" s="2">
         <v>75</v>
@@ -16143,7 +16225,7 @@
         <v>75</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>76</v>
@@ -16152,21 +16234,21 @@
         <v>83</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -16189,16 +16271,16 @@
         <v>84</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
@@ -16224,11 +16306,11 @@
         <v>75</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z133" s="2"/>
       <c r="AA133" t="s" s="2">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="AB133" t="s" s="2">
         <v>75</v>
@@ -16246,7 +16328,7 @@
         <v>75</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>76</v>
@@ -16255,21 +16337,21 @@
         <v>83</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -16292,16 +16374,16 @@
         <v>84</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" t="s" s="2">
@@ -16351,7 +16433,7 @@
         <v>75</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>76</v>
@@ -16360,21 +16442,21 @@
         <v>83</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -16397,13 +16479,13 @@
         <v>75</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
@@ -16454,7 +16536,7 @@
         <v>75</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>76</v>
@@ -16471,17 +16553,17 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" t="s" s="2">
@@ -16500,16 +16582,16 @@
         <v>75</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" t="s" s="2">
@@ -16547,19 +16629,19 @@
         <v>75</v>
       </c>
       <c r="AC136" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AD136" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AE136" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>76</v>
@@ -16568,25 +16650,25 @@
         <v>77</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" t="s" s="2">
@@ -16605,19 +16687,19 @@
         <v>84</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P137" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q137" t="s" s="2">
         <v>75</v>
@@ -16666,7 +16748,7 @@
         <v>75</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>76</v>
@@ -16675,21 +16757,21 @@
         <v>77</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -16712,15 +16794,17 @@
         <v>75</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O138" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P138" s="2"/>
       <c r="Q138" t="s" s="2">
         <v>75</v>
@@ -16769,7 +16853,7 @@
         <v>75</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>76</v>
@@ -16778,21 +16862,21 @@
         <v>77</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -16815,16 +16899,16 @@
         <v>75</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
@@ -16850,13 +16934,13 @@
         <v>75</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="AA139" t="s" s="2">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="AB139" t="s" s="2">
         <v>75</v>
@@ -16874,7 +16958,7 @@
         <v>75</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>76</v>
@@ -16883,21 +16967,21 @@
         <v>77</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -16920,15 +17004,17 @@
         <v>84</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O140" s="2"/>
+        <v>562</v>
+      </c>
+      <c r="O140" t="s" s="2">
+        <v>563</v>
+      </c>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
         <v>75</v>
@@ -16977,7 +17063,7 @@
         <v>75</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>76</v>
@@ -16986,21 +17072,21 @@
         <v>83</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>95</v>
+        <v>564</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -17023,15 +17109,17 @@
         <v>75</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O141" s="2"/>
+        <v>567</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>568</v>
+      </c>
       <c r="P141" s="2"/>
       <c r="Q141" t="s" s="2">
         <v>75</v>
@@ -17056,11 +17144,11 @@
         <v>75</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z141" s="2"/>
       <c r="AA141" t="s" s="2">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="AB141" t="s" s="2">
         <v>75</v>
@@ -17078,7 +17166,7 @@
         <v>75</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>76</v>
@@ -17087,21 +17175,21 @@
         <v>83</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>559</v>
+        <v>570</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -17124,19 +17212,19 @@
         <v>75</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="P142" t="s" s="2">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="Q142" t="s" s="2">
         <v>75</v>
@@ -17161,11 +17249,11 @@
         <v>75</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z142" s="2"/>
       <c r="AA142" t="s" s="2">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="AB142" t="s" s="2">
         <v>75</v>
@@ -17183,7 +17271,7 @@
         <v>75</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>76</v>
@@ -17192,21 +17280,21 @@
         <v>83</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>559</v>
+        <v>570</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -17229,15 +17317,17 @@
         <v>75</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="O143" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="O143" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
         <v>75</v>
@@ -17286,7 +17376,7 @@
         <v>75</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>76</v>
@@ -17295,21 +17385,21 @@
         <v>83</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -17332,16 +17422,16 @@
         <v>75</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
@@ -17391,7 +17481,7 @@
         <v>75</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>76</v>
@@ -17400,10 +17490,10 @@
         <v>77</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>95</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/fhir/tddui/all-profiles.xlsx
+++ b/www/ig/fhir/tddui/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4858" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4832" uniqueCount="574">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:15:09+00:00</t>
+    <t>2025-02-26T10:26:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -259,8 +259,8 @@
     <t>A container for a collection of resources.</t>
   </si>
   <si>
-    <t>bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}
-bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}</t>
+    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
   </si>
   <si>
     <t>Bundle.id</t>
@@ -302,10 +302,6 @@
   </si>
   <si>
     <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -438,8 +434,8 @@
     <t>Only used if the bundle is a search result set. The total does not include resources such as OperationOutcome and included resources, only the total number of matching resources.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-1</t>
+    <t xml:space="preserve">bdl-1
+</t>
   </si>
   <si>
     <t>Bundle.link</t>
@@ -496,16 +492,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -542,9 +528,6 @@
     <t>A name which details the functional use for this link - see [http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1](http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1).</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Bundle.link.url</t>
   </si>
   <si>
@@ -552,9 +535,6 @@
   </si>
   <si>
     <t>The reference details for the link.</t>
-  </si>
-  <si>
-    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
   </si>
   <si>
     <t>Bundle.entry</t>
@@ -573,8 +553,11 @@
     <t>Slicing based on the profile conformance of the entry</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}</t>
+    <t>open</t>
+  </si>
+  <si>
+    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>Bundle.entry.id</t>
@@ -606,7 +589,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>
@@ -632,8 +615,8 @@
     <t>Information about the search process that lead to the creation of this entry.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-2</t>
+    <t xml:space="preserve">bdl-2
+</t>
   </si>
   <si>
     <t>Bundle.entry.search.id</t>
@@ -689,8 +672,8 @@
     <t>Additional information about how this entry should be processed as part of a transaction or batch.  For history, it shows how the entry was processed to create the version contained in the entry.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-3</t>
+    <t xml:space="preserve">bdl-3
+</t>
   </si>
   <si>
     <t>Bundle.entry.request.id</t>
@@ -744,9 +727,6 @@
     <t>Only perform the operation if the last updated date matches. See the API documentation for ["Conditional Read"](http://hl7.org/fhir/R4/http.html#cread).</t>
   </si>
   <si>
-    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
-  </si>
-  <si>
     <t>Bundle.entry.request.ifMatch</t>
   </si>
   <si>
@@ -774,8 +754,8 @@
     <t>Indicates the results of processing the corresponding 'request' entry in the batch or transaction being responded to or what the results of an operation where when returning history.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-4</t>
+    <t xml:space="preserve">bdl-4
+</t>
   </si>
   <si>
     <t>Bundle.entry.response.id</t>
@@ -1001,7 +981,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>DocumentReference.id</t>
@@ -1016,6 +996,13 @@
     <t>DocumentReference.meta.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>DocumentReference.meta.versionId</t>
   </si>
   <si>
@@ -1052,7 +1039,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -1072,7 +1059,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1288,7 +1275,6 @@
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 constr-bind-type:Les valeurs possibles pour cet élément doivent provenir d’une des terminologies de référence suivantes :
  TRE_A05-TypeDocComplementaireCISIS, OID : 1.2.250.1.213.1.1.4.12
- TRE_A04-TypeDocument-LOINC, OID : 2.16.840.1.113883.6.1
  TRE_A12-NomenclatureASTM, OID : ASTM
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J66-TypeCode-DMP).
 En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J07-XdsTypeCode-CISIS peut être utilisé. {null}</t>
@@ -1324,7 +1310,7 @@
     <t>DocumentReference.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
 </t>
   </si>
   <si>
@@ -1332,13 +1318,6 @@
   </si>
   <si>
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>DocumentReference.date</t>
@@ -1523,13 +1502,6 @@
     <t>The document or URL of the document along with critical metadata to prove content has integrity.</t>
   </si>
   <si>
-    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
-  </si>
-  <si>
     <t>DocumentReference.content.attachment.id</t>
   </si>
   <si>
@@ -1652,7 +1624,7 @@
     <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
   </si>
   <si>
-    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
   </si>
   <si>
     <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>
@@ -1795,14 +1767,6 @@
     <t>The time period over which the service that is described by the document was provided.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
     <t>DocumentReference.context.facilityType</t>
   </si>
   <si>
@@ -1810,9 +1774,6 @@
   </si>
   <si>
     <t>The kind of facility where the patient was seen.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS</t>
@@ -1844,10 +1805,6 @@
   </si>
   <si>
     <t>DocumentReference.context.sourcePatientInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient)
-</t>
   </si>
   <si>
     <t>Référence vers la ressource Patient titulaire du dossier.</t>
@@ -2188,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24">
@@ -2196,7 +2153,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25">
@@ -2212,7 +2169,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27">
@@ -2220,7 +2177,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28">
@@ -2274,7 +2231,7 @@
         <v>23</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35">
@@ -2310,7 +2267,7 @@
         <v>31</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40">
@@ -2318,7 +2275,7 @@
         <v>33</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41">
@@ -2808,10 +2765,10 @@
         <v>83</v>
       </c>
       <c r="AJ4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="5">
@@ -2819,10 +2776,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -2845,16 +2802,16 @@
         <v>84</v>
       </c>
       <c r="L5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="N5" t="s" s="2">
+      <c r="O5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
@@ -2904,7 +2861,7 @@
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
@@ -2913,10 +2870,10 @@
         <v>83</v>
       </c>
       <c r="AJ5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -2924,10 +2881,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2950,16 +2907,16 @@
         <v>75</v>
       </c>
       <c r="L6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="N6" t="s" s="2">
+      <c r="O6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
@@ -2985,32 +2942,32 @@
         <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AA6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
       </c>
@@ -3018,10 +2975,10 @@
         <v>83</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -3029,10 +2986,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -3055,16 +3012,16 @@
         <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="N7" t="s" s="2">
+      <c r="O7" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
@@ -3114,7 +3071,7 @@
         <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>76</v>
@@ -3123,10 +3080,10 @@
         <v>83</v>
       </c>
       <c r="AJ7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -3134,10 +3091,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3160,16 +3117,16 @@
         <v>84</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M8" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="N8" t="s" s="2">
+      <c r="O8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
@@ -3180,29 +3137,29 @@
         <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="U8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y8" t="s" s="2">
+      <c r="Z8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="Z8" t="s" s="2">
+      <c r="AA8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AA8" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AB8" t="s" s="2">
         <v>75</v>
       </c>
@@ -3219,7 +3176,7 @@
         <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>83</v>
@@ -3228,10 +3185,10 @@
         <v>83</v>
       </c>
       <c r="AJ8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -3239,10 +3196,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3265,16 +3222,16 @@
         <v>84</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="N9" t="s" s="2">
+      <c r="O9" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
@@ -3324,7 +3281,7 @@
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>76</v>
@@ -3333,10 +3290,10 @@
         <v>83</v>
       </c>
       <c r="AJ9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -3344,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3370,16 +3327,16 @@
         <v>84</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
@@ -3429,7 +3386,7 @@
         <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>76</v>
@@ -3438,10 +3395,10 @@
         <v>83</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
@@ -3449,10 +3406,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3475,16 +3432,16 @@
         <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
@@ -3534,7 +3491,7 @@
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>76</v>
@@ -3543,10 +3500,10 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -3554,10 +3511,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3580,13 +3537,13 @@
         <v>75</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -3637,7 +3594,7 @@
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>76</v>
@@ -3657,14 +3614,14 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
@@ -3683,16 +3640,16 @@
         <v>75</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
@@ -3730,19 +3687,19 @@
         <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>76</v>
@@ -3751,10 +3708,10 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
@@ -3762,14 +3719,14 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
@@ -3788,19 +3745,19 @@
         <v>84</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q14" t="s" s="2">
         <v>75</v>
@@ -3849,7 +3806,7 @@
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>76</v>
@@ -3858,10 +3815,10 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
@@ -3869,10 +3826,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3895,17 +3852,15 @@
         <v>84</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
         <v>75</v>
@@ -3954,7 +3909,7 @@
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>83</v>
@@ -3963,10 +3918,10 @@
         <v>83</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="16">
@@ -3974,10 +3929,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -4000,17 +3955,15 @@
         <v>84</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
         <v>75</v>
@@ -4059,7 +4012,7 @@
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>83</v>
@@ -4068,10 +4021,10 @@
         <v>83</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -4079,10 +4032,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4105,13 +4058,13 @@
         <v>84</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -4150,19 +4103,19 @@
         <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
@@ -4171,10 +4124,10 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
@@ -4182,10 +4135,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4208,13 +4161,13 @@
         <v>75</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -4265,7 +4218,7 @@
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
@@ -4285,14 +4238,14 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
@@ -4311,16 +4264,16 @@
         <v>75</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
@@ -4358,19 +4311,19 @@
         <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
@@ -4379,10 +4332,10 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20">
@@ -4390,14 +4343,14 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
@@ -4416,19 +4369,19 @@
         <v>84</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q20" t="s" s="2">
         <v>75</v>
@@ -4477,7 +4430,7 @@
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
@@ -4486,10 +4439,10 @@
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21">
@@ -4497,10 +4450,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4526,10 +4479,10 @@
         <v>78</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4580,7 +4533,7 @@
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>76</v>
@@ -4592,7 +4545,7 @@
         <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
@@ -4600,10 +4553,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4626,16 +4579,16 @@
         <v>84</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
@@ -4685,7 +4638,7 @@
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>76</v>
@@ -4694,10 +4647,10 @@
         <v>83</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -4705,10 +4658,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4731,13 +4684,13 @@
         <v>84</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -4788,7 +4741,7 @@
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
@@ -4808,10 +4761,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4834,13 +4787,13 @@
         <v>84</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -4891,7 +4844,7 @@
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
@@ -4900,10 +4853,10 @@
         <v>83</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -4911,10 +4864,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4937,13 +4890,13 @@
         <v>75</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -4994,7 +4947,7 @@
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
@@ -5014,14 +4967,14 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
@@ -5040,16 +4993,16 @@
         <v>75</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
@@ -5087,19 +5040,19 @@
         <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
@@ -5108,10 +5061,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27">
@@ -5119,14 +5072,14 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
@@ -5145,19 +5098,19 @@
         <v>84</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q27" t="s" s="2">
         <v>75</v>
@@ -5206,7 +5159,7 @@
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
@@ -5215,10 +5168,10 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28">
@@ -5226,10 +5179,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5252,16 +5205,16 @@
         <v>84</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
@@ -5287,13 +5240,13 @@
         <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AB28" t="s" s="2">
         <v>75</v>
@@ -5311,7 +5264,7 @@
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>76</v>
@@ -5320,10 +5273,10 @@
         <v>83</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="29">
@@ -5331,10 +5284,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5357,16 +5310,16 @@
         <v>84</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
@@ -5416,7 +5369,7 @@
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
@@ -5425,10 +5378,10 @@
         <v>83</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -5436,10 +5389,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5462,13 +5415,13 @@
         <v>84</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -5519,7 +5472,7 @@
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
@@ -5528,10 +5481,10 @@
         <v>83</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31">
@@ -5539,10 +5492,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5565,13 +5518,13 @@
         <v>75</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -5622,7 +5575,7 @@
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
@@ -5642,14 +5595,14 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
@@ -5668,16 +5621,16 @@
         <v>75</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
@@ -5715,19 +5668,19 @@
         <v>75</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
@@ -5736,10 +5689,10 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33">
@@ -5747,14 +5700,14 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
@@ -5773,19 +5726,19 @@
         <v>84</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q33" t="s" s="2">
         <v>75</v>
@@ -5834,7 +5787,7 @@
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
@@ -5843,10 +5796,10 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34">
@@ -5854,10 +5807,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5880,17 +5833,15 @@
         <v>84</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
         <v>75</v>
@@ -5915,13 +5866,13 @@
         <v>75</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AB34" t="s" s="2">
         <v>75</v>
@@ -5939,7 +5890,7 @@
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>83</v>
@@ -5948,10 +5899,10 @@
         <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="35">
@@ -5959,10 +5910,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5985,16 +5936,16 @@
         <v>84</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
@@ -6044,7 +5995,7 @@
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>83</v>
@@ -6053,10 +6004,10 @@
         <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="36">
@@ -6064,10 +6015,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6090,17 +6041,15 @@
         <v>84</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
         <v>75</v>
@@ -6149,7 +6098,7 @@
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
@@ -6158,10 +6107,10 @@
         <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="37">
@@ -6169,10 +6118,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6195,17 +6144,15 @@
         <v>84</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>75</v>
@@ -6254,7 +6201,7 @@
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
@@ -6263,10 +6210,10 @@
         <v>83</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="38">
@@ -6274,10 +6221,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6300,17 +6247,15 @@
         <v>84</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
         <v>75</v>
@@ -6359,7 +6304,7 @@
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
@@ -6368,10 +6313,10 @@
         <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -6379,10 +6324,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6405,17 +6350,15 @@
         <v>84</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
         <v>75</v>
@@ -6464,7 +6407,7 @@
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
@@ -6473,10 +6416,10 @@
         <v>83</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -6484,10 +6427,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6510,13 +6453,13 @@
         <v>84</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -6567,7 +6510,7 @@
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
@@ -6576,10 +6519,10 @@
         <v>83</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41">
@@ -6587,10 +6530,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6613,13 +6556,13 @@
         <v>75</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6670,7 +6613,7 @@
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
@@ -6690,14 +6633,14 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
@@ -6716,16 +6659,16 @@
         <v>75</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
@@ -6763,19 +6706,19 @@
         <v>75</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>76</v>
@@ -6784,10 +6727,10 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43">
@@ -6795,14 +6738,14 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
@@ -6821,19 +6764,19 @@
         <v>84</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q43" t="s" s="2">
         <v>75</v>
@@ -6882,7 +6825,7 @@
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
@@ -6891,10 +6834,10 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44">
@@ -6902,10 +6845,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6928,17 +6871,15 @@
         <v>84</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>75</v>
@@ -6987,7 +6928,7 @@
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>83</v>
@@ -6996,10 +6937,10 @@
         <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="45">
@@ -7007,10 +6948,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7033,17 +6974,15 @@
         <v>84</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
         <v>75</v>
@@ -7092,7 +7031,7 @@
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
@@ -7101,10 +7040,10 @@
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="46">
@@ -7112,10 +7051,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7138,16 +7077,16 @@
         <v>84</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
@@ -7197,7 +7136,7 @@
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>76</v>
@@ -7206,10 +7145,10 @@
         <v>83</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="47">
@@ -7217,10 +7156,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7243,16 +7182,16 @@
         <v>84</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
@@ -7302,7 +7241,7 @@
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>76</v>
@@ -7311,10 +7250,10 @@
         <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="48">
@@ -7322,10 +7261,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7348,16 +7287,16 @@
         <v>84</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
@@ -7407,7 +7346,7 @@
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>76</v>
@@ -7427,13 +7366,13 @@
         <v>3</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E49" t="s" s="2">
         <v>75</v>
@@ -7455,13 +7394,13 @@
         <v>84</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -7512,7 +7451,7 @@
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
@@ -7521,10 +7460,10 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50">
@@ -7532,10 +7471,10 @@
         <v>3</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7558,13 +7497,13 @@
         <v>75</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -7615,7 +7554,7 @@
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
@@ -7635,14 +7574,14 @@
         <v>3</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" t="s" s="2">
@@ -7661,16 +7600,16 @@
         <v>75</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
@@ -7708,19 +7647,19 @@
         <v>75</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
@@ -7729,10 +7668,10 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52">
@@ -7740,14 +7679,14 @@
         <v>3</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
@@ -7766,19 +7705,19 @@
         <v>84</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q52" t="s" s="2">
         <v>75</v>
@@ -7827,7 +7766,7 @@
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>76</v>
@@ -7836,10 +7775,10 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53">
@@ -7847,10 +7786,10 @@
         <v>3</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7876,10 +7815,10 @@
         <v>78</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -7930,7 +7869,7 @@
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
@@ -7942,7 +7881,7 @@
         <v>75</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54">
@@ -7950,10 +7889,10 @@
         <v>3</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7976,16 +7915,16 @@
         <v>84</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
@@ -8035,7 +7974,7 @@
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>76</v>
@@ -8044,10 +7983,10 @@
         <v>83</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="55">
@@ -8055,10 +7994,10 @@
         <v>3</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8081,16 +8020,16 @@
         <v>75</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
@@ -8140,7 +8079,7 @@
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
@@ -8160,10 +8099,10 @@
         <v>3</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8186,13 +8125,13 @@
         <v>84</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -8243,7 +8182,7 @@
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
@@ -8252,10 +8191,10 @@
         <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57">
@@ -8263,10 +8202,10 @@
         <v>3</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8289,13 +8228,13 @@
         <v>75</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -8346,7 +8285,7 @@
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
@@ -8366,14 +8305,14 @@
         <v>3</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s" s="2">
@@ -8392,16 +8331,16 @@
         <v>75</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
@@ -8439,19 +8378,19 @@
         <v>75</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>76</v>
@@ -8460,10 +8399,10 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59">
@@ -8471,14 +8410,14 @@
         <v>3</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" t="s" s="2">
@@ -8497,19 +8436,19 @@
         <v>84</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q59" t="s" s="2">
         <v>75</v>
@@ -8558,7 +8497,7 @@
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>76</v>
@@ -8567,10 +8506,10 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60">
@@ -8578,10 +8517,10 @@
         <v>3</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8604,16 +8543,16 @@
         <v>84</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
@@ -8639,13 +8578,13 @@
         <v>75</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AB60" t="s" s="2">
         <v>75</v>
@@ -8663,7 +8602,7 @@
         <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
@@ -8672,10 +8611,10 @@
         <v>83</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="61">
@@ -8683,10 +8622,10 @@
         <v>3</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8709,16 +8648,16 @@
         <v>84</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
@@ -8768,7 +8707,7 @@
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
@@ -8777,10 +8716,10 @@
         <v>83</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="62">
@@ -8788,10 +8727,10 @@
         <v>3</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8814,13 +8753,13 @@
         <v>84</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -8871,7 +8810,7 @@
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>76</v>
@@ -8880,10 +8819,10 @@
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63">
@@ -8891,10 +8830,10 @@
         <v>3</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8917,13 +8856,13 @@
         <v>75</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -8974,7 +8913,7 @@
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
@@ -8994,14 +8933,14 @@
         <v>3</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" t="s" s="2">
@@ -9020,16 +8959,16 @@
         <v>75</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
@@ -9067,19 +9006,19 @@
         <v>75</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>76</v>
@@ -9088,10 +9027,10 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65">
@@ -9099,14 +9038,14 @@
         <v>3</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
@@ -9125,19 +9064,19 @@
         <v>84</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P65" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q65" t="s" s="2">
         <v>75</v>
@@ -9186,7 +9125,7 @@
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
@@ -9195,10 +9134,10 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66">
@@ -9206,10 +9145,10 @@
         <v>3</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9232,17 +9171,15 @@
         <v>84</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
         <v>75</v>
@@ -9252,7 +9189,7 @@
         <v>75</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>75</v>
@@ -9267,13 +9204,13 @@
         <v>75</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AB66" t="s" s="2">
         <v>75</v>
@@ -9291,7 +9228,7 @@
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>83</v>
@@ -9300,10 +9237,10 @@
         <v>83</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="67">
@@ -9311,10 +9248,10 @@
         <v>3</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9337,16 +9274,16 @@
         <v>84</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
@@ -9396,7 +9333,7 @@
         <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>83</v>
@@ -9405,10 +9342,10 @@
         <v>83</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="68">
@@ -9416,10 +9353,10 @@
         <v>3</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9442,17 +9379,15 @@
         <v>84</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
         <v>75</v>
@@ -9501,7 +9436,7 @@
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
@@ -9510,10 +9445,10 @@
         <v>83</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="69">
@@ -9521,10 +9456,10 @@
         <v>3</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9547,17 +9482,15 @@
         <v>84</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
         <v>75</v>
@@ -9606,7 +9539,7 @@
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
@@ -9615,10 +9548,10 @@
         <v>83</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="70">
@@ -9626,10 +9559,10 @@
         <v>3</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9652,17 +9585,15 @@
         <v>84</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
         <v>75</v>
@@ -9711,7 +9642,7 @@
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>76</v>
@@ -9720,10 +9651,10 @@
         <v>83</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="71">
@@ -9731,10 +9662,10 @@
         <v>3</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9757,17 +9688,15 @@
         <v>84</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
         <v>75</v>
@@ -9816,7 +9745,7 @@
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>76</v>
@@ -9825,10 +9754,10 @@
         <v>83</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="72">
@@ -9836,10 +9765,10 @@
         <v>3</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9862,13 +9791,13 @@
         <v>84</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -9919,7 +9848,7 @@
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>76</v>
@@ -9928,10 +9857,10 @@
         <v>83</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73">
@@ -9939,10 +9868,10 @@
         <v>3</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9965,13 +9894,13 @@
         <v>75</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -10022,7 +9951,7 @@
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>76</v>
@@ -10042,14 +9971,14 @@
         <v>3</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
@@ -10068,16 +9997,16 @@
         <v>75</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
@@ -10115,19 +10044,19 @@
         <v>75</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>76</v>
@@ -10136,10 +10065,10 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75">
@@ -10147,14 +10076,14 @@
         <v>3</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
@@ -10173,19 +10102,19 @@
         <v>84</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P75" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q75" t="s" s="2">
         <v>75</v>
@@ -10234,7 +10163,7 @@
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>76</v>
@@ -10243,10 +10172,10 @@
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76">
@@ -10254,10 +10183,10 @@
         <v>3</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10280,17 +10209,15 @@
         <v>84</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>75</v>
@@ -10339,7 +10266,7 @@
         <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>83</v>
@@ -10348,10 +10275,10 @@
         <v>83</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="77">
@@ -10359,10 +10286,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10385,17 +10312,15 @@
         <v>84</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
         <v>75</v>
@@ -10444,7 +10369,7 @@
         <v>75</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>76</v>
@@ -10453,10 +10378,10 @@
         <v>83</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="78">
@@ -10464,10 +10389,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10490,16 +10415,16 @@
         <v>84</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
@@ -10549,7 +10474,7 @@
         <v>75</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
@@ -10558,10 +10483,10 @@
         <v>83</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="79">
@@ -10569,10 +10494,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10595,16 +10520,16 @@
         <v>84</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
@@ -10654,7 +10579,7 @@
         <v>75</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>76</v>
@@ -10663,10 +10588,10 @@
         <v>83</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="80">
@@ -10674,10 +10599,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10700,16 +10625,16 @@
         <v>84</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
@@ -10759,7 +10684,7 @@
         <v>75</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>76</v>
@@ -10779,10 +10704,10 @@
         <v>3</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10805,19 +10730,19 @@
         <v>84</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P81" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q81" t="s" s="2">
         <v>75</v>
@@ -10866,7 +10791,7 @@
         <v>75</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>76</v>
@@ -10875,21 +10800,21 @@
         <v>83</v>
       </c>
       <c r="AJ81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10915,13 +10840,13 @@
         <v>78</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
@@ -10971,7 +10896,7 @@
         <v>75</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>76</v>
@@ -10983,18 +10908,18 @@
         <v>75</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11093,13 +11018,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11188,21 +11113,21 @@
         <v>83</v>
       </c>
       <c r="AJ84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK84" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11225,13 +11150,13 @@
         <v>75</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
@@ -11282,7 +11207,7 @@
         <v>75</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>76</v>
@@ -11299,17 +11224,17 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s" s="2">
@@ -11328,16 +11253,16 @@
         <v>75</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
@@ -11375,19 +11300,19 @@
         <v>75</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>153</v>
+        <v>314</v>
       </c>
       <c r="AE86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>76</v>
@@ -11396,21 +11321,21 @@
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11436,13 +11361,13 @@
         <v>85</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
@@ -11492,7 +11417,7 @@
         <v>75</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>76</v>
@@ -11501,21 +11426,21 @@
         <v>83</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK87" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11538,16 +11463,16 @@
         <v>84</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
@@ -11597,7 +11522,7 @@
         <v>75</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>76</v>
@@ -11606,21 +11531,21 @@
         <v>83</v>
       </c>
       <c r="AJ88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK88" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11643,16 +11568,16 @@
         <v>84</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
@@ -11702,7 +11627,7 @@
         <v>75</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>76</v>
@@ -11711,21 +11636,21 @@
         <v>83</v>
       </c>
       <c r="AJ89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK89" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11748,16 +11673,16 @@
         <v>84</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
@@ -11807,7 +11732,7 @@
         <v>75</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>76</v>
@@ -11816,21 +11741,21 @@
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK90" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11853,16 +11778,16 @@
         <v>84</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
@@ -11888,13 +11813,13 @@
         <v>75</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB91" t="s" s="2">
         <v>75</v>
@@ -11912,7 +11837,7 @@
         <v>75</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>76</v>
@@ -11921,21 +11846,21 @@
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK91" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11958,16 +11883,16 @@
         <v>84</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
@@ -11993,13 +11918,13 @@
         <v>75</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AB92" t="s" s="2">
         <v>75</v>
@@ -12017,7 +11942,7 @@
         <v>75</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>76</v>
@@ -12026,21 +11951,21 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK92" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12063,16 +11988,16 @@
         <v>84</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="N93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
@@ -12122,7 +12047,7 @@
         <v>75</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>76</v>
@@ -12131,21 +12056,21 @@
         <v>83</v>
       </c>
       <c r="AJ93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK93" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12168,16 +12093,16 @@
         <v>75</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
@@ -12203,32 +12128,32 @@
         <v>75</v>
       </c>
       <c r="Y94" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z94" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z94" t="s" s="2">
+      <c r="AA94" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AA94" t="s" s="2">
+      <c r="AB94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG94" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AB94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AH94" t="s" s="2">
         <v>76</v>
       </c>
@@ -12236,25 +12161,25 @@
         <v>83</v>
       </c>
       <c r="AJ94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK94" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" t="s" s="2">
@@ -12273,16 +12198,16 @@
         <v>75</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
@@ -12332,7 +12257,7 @@
         <v>75</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>76</v>
@@ -12341,25 +12266,25 @@
         <v>83</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK95" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" t="s" s="2">
@@ -12378,16 +12303,16 @@
         <v>75</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
@@ -12437,7 +12362,7 @@
         <v>75</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>76</v>
@@ -12454,17 +12379,17 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" t="s" s="2">
@@ -12483,16 +12408,16 @@
         <v>75</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M97" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="N97" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
@@ -12530,19 +12455,19 @@
         <v>75</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>76</v>
@@ -12551,21 +12476,21 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12588,13 +12513,13 @@
         <v>75</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -12633,19 +12558,19 @@
         <v>75</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD98" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>76</v>
@@ -12654,21 +12579,21 @@
         <v>77</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12691,19 +12616,19 @@
         <v>84</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P99" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Q99" t="s" s="2">
         <v>75</v>
@@ -12752,7 +12677,7 @@
         <v>75</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>76</v>
@@ -12761,21 +12686,21 @@
         <v>83</v>
       </c>
       <c r="AJ99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK99" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12798,13 +12723,13 @@
         <v>84</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -12855,7 +12780,7 @@
         <v>75</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>76</v>
@@ -12864,21 +12789,21 @@
         <v>77</v>
       </c>
       <c r="AJ100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK100" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12901,16 +12826,16 @@
         <v>84</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
@@ -12921,7 +12846,7 @@
         <v>75</v>
       </c>
       <c r="T101" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="U101" t="s" s="2">
         <v>75</v>
@@ -12936,13 +12861,13 @@
         <v>75</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AB101" t="s" s="2">
         <v>75</v>
@@ -12960,7 +12885,7 @@
         <v>75</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>83</v>
@@ -12969,21 +12894,21 @@
         <v>83</v>
       </c>
       <c r="AJ101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK101" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13006,16 +12931,16 @@
         <v>84</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
@@ -13041,13 +12966,13 @@
         <v>75</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AB102" t="s" s="2">
         <v>75</v>
@@ -13065,7 +12990,7 @@
         <v>75</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>76</v>
@@ -13074,21 +12999,21 @@
         <v>83</v>
       </c>
       <c r="AJ102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK102" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13111,16 +13036,16 @@
         <v>84</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
@@ -13146,11 +13071,11 @@
         <v>75</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z103" s="2"/>
       <c r="AA103" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AB103" t="s" s="2">
         <v>75</v>
@@ -13168,7 +13093,7 @@
         <v>75</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>76</v>
@@ -13177,25 +13102,25 @@
         <v>83</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" t="s" s="2">
@@ -13214,16 +13139,16 @@
         <v>84</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
@@ -13249,11 +13174,11 @@
         <v>75</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z104" s="2"/>
       <c r="AA104" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AB104" t="s" s="2">
         <v>75</v>
@@ -13271,7 +13196,7 @@
         <v>75</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>76</v>
@@ -13280,21 +13205,21 @@
         <v>77</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13317,17 +13242,15 @@
         <v>84</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="O105" s="2"/>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
         <v>75</v>
@@ -13376,7 +13299,7 @@
         <v>75</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>76</v>
@@ -13385,25 +13308,25 @@
         <v>83</v>
       </c>
       <c r="AJ105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK105" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" t="s" s="2">
@@ -13422,16 +13345,16 @@
         <v>84</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
@@ -13481,7 +13404,7 @@
         <v>75</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>76</v>
@@ -13490,21 +13413,21 @@
         <v>83</v>
       </c>
       <c r="AJ106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK106" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13527,16 +13450,16 @@
         <v>84</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
@@ -13586,7 +13509,7 @@
         <v>75</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>76</v>
@@ -13595,21 +13518,21 @@
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK107" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -13632,16 +13555,16 @@
         <v>75</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
@@ -13691,7 +13614,7 @@
         <v>75</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>76</v>
@@ -13700,21 +13623,21 @@
         <v>83</v>
       </c>
       <c r="AJ108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK108" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -13737,16 +13660,16 @@
         <v>75</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
@@ -13796,7 +13719,7 @@
         <v>75</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>76</v>
@@ -13805,21 +13728,21 @@
         <v>83</v>
       </c>
       <c r="AJ109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK109" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -13842,16 +13765,16 @@
         <v>84</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
@@ -13901,7 +13824,7 @@
         <v>75</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>76</v>
@@ -13910,21 +13833,21 @@
         <v>77</v>
       </c>
       <c r="AJ110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK110" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -13947,13 +13870,13 @@
         <v>75</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -14004,7 +13927,7 @@
         <v>75</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>76</v>
@@ -14021,17 +13944,17 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" t="s" s="2">
@@ -14050,16 +13973,16 @@
         <v>75</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N112" t="s" s="2">
+      <c r="O112" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
@@ -14097,19 +14020,19 @@
         <v>75</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>76</v>
@@ -14118,25 +14041,25 @@
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" t="s" s="2">
@@ -14155,19 +14078,19 @@
         <v>84</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P113" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q113" t="s" s="2">
         <v>75</v>
@@ -14216,7 +14139,7 @@
         <v>75</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>76</v>
@@ -14225,21 +14148,21 @@
         <v>77</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -14262,16 +14185,16 @@
         <v>84</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
@@ -14297,13 +14220,13 @@
         <v>75</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AB114" t="s" s="2">
         <v>75</v>
@@ -14321,7 +14244,7 @@
         <v>75</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>83</v>
@@ -14330,21 +14253,21 @@
         <v>83</v>
       </c>
       <c r="AJ114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK114" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -14367,17 +14290,15 @@
         <v>84</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="O115" s="2"/>
       <c r="P115" s="2"/>
       <c r="Q115" t="s" s="2">
         <v>75</v>
@@ -14426,7 +14347,7 @@
         <v>75</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>83</v>
@@ -14435,21 +14356,21 @@
         <v>83</v>
       </c>
       <c r="AJ115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK115" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -14472,19 +14393,19 @@
         <v>84</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="P116" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="Q116" t="s" s="2">
         <v>75</v>
@@ -14533,7 +14454,7 @@
         <v>75</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>76</v>
@@ -14542,21 +14463,21 @@
         <v>83</v>
       </c>
       <c r="AJ116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK116" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14579,19 +14500,19 @@
         <v>84</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="P117" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="Q117" t="s" s="2">
         <v>75</v>
@@ -14616,13 +14537,13 @@
         <v>75</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AB117" t="s" s="2">
         <v>75</v>
@@ -14640,7 +14561,7 @@
         <v>75</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>76</v>
@@ -14649,21 +14570,21 @@
         <v>77</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -14686,13 +14607,13 @@
         <v>84</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
@@ -14743,7 +14664,7 @@
         <v>75</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>83</v>
@@ -14752,21 +14673,21 @@
         <v>77</v>
       </c>
       <c r="AJ118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK118" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -14789,13 +14710,13 @@
         <v>75</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M119" t="s" s="2">
+      <c r="N119" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
@@ -14846,7 +14767,7 @@
         <v>75</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>76</v>
@@ -14863,17 +14784,17 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" t="s" s="2">
@@ -14892,16 +14813,16 @@
         <v>75</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N120" t="s" s="2">
+      <c r="O120" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
@@ -14939,19 +14860,19 @@
         <v>75</v>
       </c>
       <c r="AC120" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>76</v>
@@ -14960,25 +14881,25 @@
         <v>77</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" t="s" s="2">
@@ -14997,19 +14918,19 @@
         <v>84</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P121" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q121" t="s" s="2">
         <v>75</v>
@@ -15058,7 +14979,7 @@
         <v>75</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>76</v>
@@ -15067,21 +14988,21 @@
         <v>77</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -15104,17 +15025,15 @@
         <v>84</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="O122" s="2"/>
       <c r="P122" s="2"/>
       <c r="Q122" t="s" s="2">
         <v>75</v>
@@ -15163,7 +15082,7 @@
         <v>75</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>83</v>
@@ -15172,21 +15091,21 @@
         <v>83</v>
       </c>
       <c r="AJ122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK122" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>479</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -15209,13 +15128,13 @@
         <v>75</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
@@ -15266,7 +15185,7 @@
         <v>75</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>76</v>
@@ -15283,17 +15202,17 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" t="s" s="2">
@@ -15312,16 +15231,16 @@
         <v>75</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M124" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M124" t="s" s="2">
+      <c r="N124" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N124" t="s" s="2">
+      <c r="O124" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" t="s" s="2">
@@ -15359,19 +15278,19 @@
         <v>75</v>
       </c>
       <c r="AC124" t="s" s="2">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="AD124" t="s" s="2">
-        <v>153</v>
+        <v>314</v>
       </c>
       <c r="AE124" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>76</v>
@@ -15380,21 +15299,21 @@
         <v>77</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -15417,19 +15336,17 @@
         <v>84</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="Q125" t="s" s="2">
         <v>75</v>
@@ -15442,7 +15359,7 @@
         <v>75</v>
       </c>
       <c r="U125" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="V125" t="s" s="2">
         <v>75</v>
@@ -15454,13 +15371,13 @@
         <v>75</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="AA125" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="AB125" t="s" s="2">
         <v>75</v>
@@ -15478,7 +15395,7 @@
         <v>75</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>76</v>
@@ -15487,21 +15404,21 @@
         <v>83</v>
       </c>
       <c r="AJ125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK125" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -15524,19 +15441,17 @@
         <v>84</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="Q126" t="s" s="2">
         <v>75</v>
@@ -15549,7 +15464,7 @@
         <v>75</v>
       </c>
       <c r="U126" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="V126" t="s" s="2">
         <v>75</v>
@@ -15561,14 +15476,14 @@
         <v>75</v>
       </c>
       <c r="Y126" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z126" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z126" t="s" s="2">
+      <c r="AA126" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AA126" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="AB126" t="s" s="2">
         <v>75</v>
       </c>
@@ -15585,7 +15500,7 @@
         <v>75</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>76</v>
@@ -15594,21 +15509,21 @@
         <v>83</v>
       </c>
       <c r="AJ126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK126" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -15631,19 +15546,19 @@
         <v>75</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="P127" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="Q127" t="s" s="2">
         <v>75</v>
@@ -15692,7 +15607,7 @@
         <v>75</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>76</v>
@@ -15701,21 +15616,21 @@
         <v>83</v>
       </c>
       <c r="AJ127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK127" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -15738,19 +15653,19 @@
         <v>84</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="P128" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="Q128" t="s" s="2">
         <v>75</v>
@@ -15763,7 +15678,7 @@
         <v>75</v>
       </c>
       <c r="U128" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="V128" t="s" s="2">
         <v>75</v>
@@ -15799,7 +15714,7 @@
         <v>75</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>76</v>
@@ -15808,21 +15723,21 @@
         <v>83</v>
       </c>
       <c r="AJ128" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK128" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -15845,19 +15760,19 @@
         <v>84</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="P129" t="s" s="2">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="Q129" t="s" s="2">
         <v>75</v>
@@ -15906,7 +15821,7 @@
         <v>75</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>76</v>
@@ -15915,21 +15830,21 @@
         <v>83</v>
       </c>
       <c r="AJ129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK129" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -15952,19 +15867,19 @@
         <v>84</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="P130" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="Q130" t="s" s="2">
         <v>75</v>
@@ -16013,7 +15928,7 @@
         <v>75</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>76</v>
@@ -16022,21 +15937,21 @@
         <v>83</v>
       </c>
       <c r="AJ130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK130" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16059,19 +15974,17 @@
         <v>84</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="Q131" t="s" s="2">
         <v>75</v>
@@ -16084,7 +15997,7 @@
         <v>75</v>
       </c>
       <c r="U131" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="V131" t="s" s="2">
         <v>75</v>
@@ -16120,7 +16033,7 @@
         <v>75</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>76</v>
@@ -16129,21 +16042,21 @@
         <v>83</v>
       </c>
       <c r="AJ131" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK131" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -16166,17 +16079,17 @@
         <v>84</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="Q132" t="s" s="2">
         <v>75</v>
@@ -16225,7 +16138,7 @@
         <v>75</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>76</v>
@@ -16234,21 +16147,21 @@
         <v>83</v>
       </c>
       <c r="AJ132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK132" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -16271,16 +16184,16 @@
         <v>84</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
@@ -16306,11 +16219,11 @@
         <v>75</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z133" s="2"/>
       <c r="AA133" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="AB133" t="s" s="2">
         <v>75</v>
@@ -16328,7 +16241,7 @@
         <v>75</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>76</v>
@@ -16337,21 +16250,21 @@
         <v>83</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -16374,16 +16287,16 @@
         <v>84</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" t="s" s="2">
@@ -16433,7 +16346,7 @@
         <v>75</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>76</v>
@@ -16442,21 +16355,21 @@
         <v>83</v>
       </c>
       <c r="AJ134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK134" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -16479,13 +16392,13 @@
         <v>75</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
@@ -16536,7 +16449,7 @@
         <v>75</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>76</v>
@@ -16553,17 +16466,17 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" t="s" s="2">
@@ -16582,16 +16495,16 @@
         <v>75</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N136" t="s" s="2">
+      <c r="O136" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" t="s" s="2">
@@ -16629,19 +16542,19 @@
         <v>75</v>
       </c>
       <c r="AC136" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AD136" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AE136" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>76</v>
@@ -16650,25 +16563,25 @@
         <v>77</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" t="s" s="2">
@@ -16687,19 +16600,19 @@
         <v>84</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P137" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q137" t="s" s="2">
         <v>75</v>
@@ -16748,7 +16661,7 @@
         <v>75</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>76</v>
@@ -16757,21 +16670,21 @@
         <v>77</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -16794,17 +16707,15 @@
         <v>75</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="O138" s="2"/>
       <c r="P138" s="2"/>
       <c r="Q138" t="s" s="2">
         <v>75</v>
@@ -16853,7 +16764,7 @@
         <v>75</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>76</v>
@@ -16862,21 +16773,21 @@
         <v>77</v>
       </c>
       <c r="AJ138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK138" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -16899,16 +16810,16 @@
         <v>75</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
@@ -16934,13 +16845,13 @@
         <v>75</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="AA139" t="s" s="2">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="AB139" t="s" s="2">
         <v>75</v>
@@ -16958,7 +16869,7 @@
         <v>75</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>76</v>
@@ -16967,21 +16878,21 @@
         <v>77</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -17004,17 +16915,15 @@
         <v>84</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="O140" s="2"/>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
         <v>75</v>
@@ -17063,7 +16972,7 @@
         <v>75</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>76</v>
@@ -17072,21 +16981,21 @@
         <v>83</v>
       </c>
       <c r="AJ140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK140" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>564</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -17109,17 +17018,15 @@
         <v>75</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="O141" s="2"/>
       <c r="P141" s="2"/>
       <c r="Q141" t="s" s="2">
         <v>75</v>
@@ -17144,11 +17051,11 @@
         <v>75</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z141" s="2"/>
       <c r="AA141" t="s" s="2">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="AB141" t="s" s="2">
         <v>75</v>
@@ -17166,7 +17073,7 @@
         <v>75</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>76</v>
@@ -17175,21 +17082,21 @@
         <v>83</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -17212,19 +17119,19 @@
         <v>75</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="P142" t="s" s="2">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="Q142" t="s" s="2">
         <v>75</v>
@@ -17249,11 +17156,11 @@
         <v>75</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z142" s="2"/>
       <c r="AA142" t="s" s="2">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="AB142" t="s" s="2">
         <v>75</v>
@@ -17271,7 +17178,7 @@
         <v>75</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>76</v>
@@ -17280,21 +17187,21 @@
         <v>83</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -17317,17 +17224,15 @@
         <v>75</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>578</v>
+        <v>411</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="O143" s="2"/>
       <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
         <v>75</v>
@@ -17376,7 +17281,7 @@
         <v>75</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>76</v>
@@ -17385,21 +17290,21 @@
         <v>83</v>
       </c>
       <c r="AJ143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK143" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK143" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -17422,16 +17327,16 @@
         <v>75</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
@@ -17481,7 +17386,7 @@
         <v>75</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>76</v>
@@ -17490,10 +17395,10 @@
         <v>77</v>
       </c>
       <c r="AJ144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK144" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AK144" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
   </sheetData>
